--- a/2. Data Pre-processing/kl_selangor_cafe_reviews.xlsx
+++ b/2. Data Pre-processing/kl_selangor_cafe_reviews.xlsx
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>37</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>19</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>5</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>13</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>13</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>13</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>4</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>16</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>5</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>7</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>9</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>4</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>8</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>10</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>4</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>16</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>5</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>17</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>2</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>3</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>7</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>7</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>8</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>5</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>5</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>3</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>3</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>5</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>3</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>18</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>7</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>5</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>18</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>6</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>21</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>2</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>4</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>5</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>11</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>7</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>6</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>29</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>4</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>2</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>7</v>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>21</v>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>3</v>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>2</v>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>6</v>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>3</v>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>8</v>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>27</v>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>10</v>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>5</v>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>2</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>5</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>7</v>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>4</v>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>21</v>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>2</v>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>2</v>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>6</v>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>4</v>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>4</v>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>4</v>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>9</v>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>5</v>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>9</v>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>5</v>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>4</v>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>5</v>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>4</v>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>4</v>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>6</v>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>2</v>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>4</v>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>5</v>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>4</v>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>8</v>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>3</v>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>20</v>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>3</v>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>2</v>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>5</v>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>5</v>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>3</v>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>20</v>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>3</v>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>10</v>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>8</v>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>5</v>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>4</v>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>7</v>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>7</v>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>2</v>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>7</v>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>2</v>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>3</v>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>4</v>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>4</v>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>3</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>3</v>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>3</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>9</v>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>3</v>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>3</v>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>18</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>18</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>12</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>4</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>2</v>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>16</v>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>2</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>4</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>3</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>4</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>8</v>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>3</v>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>11</v>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>4</v>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>2</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>3</v>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>3</v>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="D521" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>4</v>
       </c>
       <c r="D522" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>3</v>
       </c>
       <c r="D523" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>8</v>
       </c>
       <c r="D524" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>2</v>
       </c>
       <c r="D525" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>14</v>
       </c>
       <c r="D526" s="2" t="n">
-        <v>43623</v>
+        <v>43624</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="D527" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>8</v>
       </c>
       <c r="D528" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>8</v>
       </c>
       <c r="D529" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>2</v>
       </c>
       <c r="D530" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
       <c r="D531" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>2</v>
       </c>
       <c r="D532" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>7</v>
       </c>
       <c r="D533" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>4</v>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>5</v>
       </c>
       <c r="D535" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>4</v>
       </c>
       <c r="D536" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="D537" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>4</v>
       </c>
       <c r="D538" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>10</v>
       </c>
       <c r="D540" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>16</v>
       </c>
       <c r="D541" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>5</v>
       </c>
       <c r="D542" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>4</v>
       </c>
       <c r="D543" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>4</v>
       </c>
       <c r="D544" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>5</v>
       </c>
       <c r="D545" s="2" t="n">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>5</v>
       </c>
       <c r="D546" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="D547" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="D548" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="D549" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>5</v>
       </c>
       <c r="D550" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="D551" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="D553" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>37</v>
       </c>
       <c r="D554" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>10</v>
       </c>
       <c r="D555" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>2</v>
       </c>
       <c r="D556" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="D557" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>5</v>
       </c>
       <c r="D558" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="D559" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>2</v>
       </c>
       <c r="D560" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="D561" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>2</v>
       </c>
       <c r="D562" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>6</v>
       </c>
       <c r="D563" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>8</v>
       </c>
       <c r="D564" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>12</v>
       </c>
       <c r="D565" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>10</v>
       </c>
       <c r="D566" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>7</v>
       </c>
       <c r="D567" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>2</v>
       </c>
       <c r="D568" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>6</v>
       </c>
       <c r="D569" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>8</v>
       </c>
       <c r="D570" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>2</v>
       </c>
       <c r="D571" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>2</v>
       </c>
       <c r="D572" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="D574" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>17</v>
       </c>
       <c r="D575" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>5</v>
       </c>
       <c r="D576" s="2" t="n">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>2</v>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="D578" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="D579" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>3</v>
       </c>
       <c r="D580" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>5</v>
       </c>
       <c r="D581" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>2</v>
       </c>
       <c r="D582" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>2</v>
       </c>
       <c r="D584" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>4</v>
       </c>
       <c r="D585" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>6</v>
       </c>
       <c r="D586" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="D587" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="D588" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>3</v>
       </c>
       <c r="D589" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>4</v>
       </c>
       <c r="D590" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>6</v>
       </c>
       <c r="D591" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>6</v>
       </c>
       <c r="D592" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="D594" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>7</v>
       </c>
       <c r="D595" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>10</v>
       </c>
       <c r="D596" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>2</v>
       </c>
       <c r="D597" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>6</v>
       </c>
       <c r="D598" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="D599" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>12</v>
       </c>
       <c r="D600" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>2</v>
       </c>
       <c r="D601" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>6</v>
       </c>
       <c r="D602" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>5</v>
       </c>
       <c r="D603" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>4</v>
       </c>
       <c r="D604" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>10</v>
       </c>
       <c r="D605" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>8</v>
       </c>
       <c r="D606" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>11</v>
       </c>
       <c r="D607" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>2</v>
       </c>
       <c r="D608" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>3</v>
       </c>
       <c r="D609" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>7</v>
       </c>
       <c r="D610" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>4</v>
       </c>
       <c r="D611" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>5</v>
       </c>
       <c r="D612" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="D614" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="D615" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>4</v>
       </c>
       <c r="D616" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="D617" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="D618" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>4</v>
       </c>
       <c r="D619" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>4</v>
       </c>
       <c r="D620" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>3</v>
       </c>
       <c r="D621" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>2</v>
       </c>
       <c r="D622" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>12</v>
       </c>
       <c r="D623" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="D624" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="D625" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>2</v>
       </c>
       <c r="D627" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>4</v>
       </c>
       <c r="D628" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>8</v>
       </c>
       <c r="D629" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>24</v>
       </c>
       <c r="D630" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="D631" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>3</v>
       </c>
       <c r="D632" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>2</v>
       </c>
       <c r="D633" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="D634" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="D635" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>2</v>
       </c>
       <c r="D636" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="D637" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="D638" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>5</v>
       </c>
       <c r="D639" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>6</v>
       </c>
       <c r="D640" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="D641" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>12</v>
       </c>
       <c r="D642" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>9</v>
       </c>
       <c r="D643" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="D644" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>3</v>
       </c>
       <c r="D645" s="2" t="n">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>6</v>
       </c>
       <c r="D646" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>3</v>
       </c>
       <c r="D647" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>3</v>
       </c>
       <c r="D648" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>2</v>
       </c>
       <c r="D649" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>3</v>
       </c>
       <c r="D650" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>4</v>
       </c>
       <c r="D651" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>3</v>
       </c>
       <c r="D652" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>4</v>
       </c>
       <c r="D653" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>1</v>
       </c>
       <c r="D654" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="D655" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>3</v>
       </c>
       <c r="D656" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>11</v>
       </c>
       <c r="D657" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>4</v>
       </c>
       <c r="D658" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>6</v>
       </c>
       <c r="D659" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>6</v>
       </c>
       <c r="D660" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>2</v>
       </c>
       <c r="D661" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="D662" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>6</v>
       </c>
       <c r="D663" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="D664" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>4</v>
       </c>
       <c r="D665" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>4</v>
       </c>
       <c r="D666" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>3</v>
       </c>
       <c r="D667" s="2" t="n">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>7</v>
       </c>
       <c r="D668" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>6</v>
       </c>
       <c r="D669" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>5</v>
       </c>
       <c r="D670" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>5</v>
       </c>
       <c r="D671" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>3</v>
       </c>
       <c r="D672" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>6</v>
       </c>
       <c r="D673" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>3</v>
       </c>
       <c r="D674" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>31</v>
       </c>
       <c r="D675" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>6</v>
       </c>
       <c r="D676" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>3</v>
       </c>
       <c r="D677" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>6</v>
       </c>
       <c r="D678" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>3</v>
       </c>
       <c r="D679" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="D680" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>4</v>
       </c>
       <c r="D681" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
